--- a/umit_files/umit_geo.xlsx
+++ b/umit_files/umit_geo.xlsx
@@ -21,10 +21,12 @@
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -260,11 +262,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/1e0mBW0UOJkf3_gV1HgYv3H4eGdfs-Cxkvs-Dh6BVE0Q/edit?usp=sharing"",""УМИТЫ!A:Z"")")," Источники географической информации.")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/143kDXedG9Cx-L7R-Q8ll6Y_WMJ0FKJ3PSFr6D5-sHgg/edit"",""УМИТЫ!A:Z"")")," Источники географической информации.")</f>
         <v> Источники географической информации.</v>
       </c>
       <c r="B1" s="1"/>

--- a/umit_files/umit_geo.xlsx
+++ b/umit_files/umit_geo.xlsx
@@ -2528,8 +2528,14 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="A23" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Классификация энергетических ресурсов")</f>
+        <v>Классификация энергетических ресурсов</v>
+      </c>
+      <c r="B23" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),22.0)</f>
+        <v>22</v>
+      </c>
       <c r="C23" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Беринг Витус Ионассен")</f>
         <v>Беринг Витус Ионассен</v>
@@ -2616,8 +2622,14 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="A24" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Основная химия")</f>
+        <v>Основная химия</v>
+      </c>
+      <c r="B24" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),23.0)</f>
+        <v>23</v>
+      </c>
       <c r="C24" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вернадский Владимир Иванович")</f>
         <v>Вернадский Владимир Иванович</v>
@@ -2704,8 +2716,14 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="A25" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химия органического синтеза")</f>
+        <v>Химия органического синтеза</v>
+      </c>
+      <c r="B25" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),24.0)</f>
+        <v>24</v>
+      </c>
       <c r="C25" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Обручев Владимир Афанасьевич")</f>
         <v>Обручев Владимир Афанасьевич</v>
@@ -2792,8 +2810,14 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="A26" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Горная химия")</f>
+        <v>Горная химия</v>
+      </c>
+      <c r="B26" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),25.0)</f>
+        <v>25</v>
+      </c>
       <c r="C26" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Докучаев Василий Васильевич")</f>
         <v>Докучаев Василий Васильевич</v>
@@ -2880,8 +2904,14 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="A27" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Особо охраняемые природные территории")</f>
+        <v>Особо охраняемые природные территории</v>
+      </c>
+      <c r="B27" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),26.0)</f>
+        <v>26</v>
+      </c>
       <c r="C27" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ферсман Александр Евгеньевич")</f>
         <v>Ферсман Александр Евгеньевич</v>

--- a/umit_files/umit_geo.xlsx
+++ b/umit_files/umit_geo.xlsx
@@ -921,8 +921,8 @@
         <v>606</v>
       </c>
       <c r="O7" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Демографическая политика. Демографический переход")</f>
-        <v>Демографическая политика. Демографический переход</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Демографическая политика")</f>
+        <v>Демографическая политика</v>
       </c>
       <c r="P7" s="1">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),706.0)</f>
@@ -1199,12 +1199,12 @@
         <v>109</v>
       </c>
       <c r="E10" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Космическое излучение и его влияние")</f>
-        <v>Космическое излучение и его влияние</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Зависимость высоты Солнца над горизонтом от географической широты, формула ")</f>
+        <v>Зависимость высоты Солнца над горизонтом от географической широты, формула </v>
       </c>
       <c r="F10" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),209.0)</f>
-        <v>209</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),210.0)</f>
+        <v>210</v>
       </c>
       <c r="G10" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Горные породы")</f>
@@ -1305,12 +1305,12 @@
         <v>110</v>
       </c>
       <c r="E11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Зависимость высоты Солнца над горизонтом от географической широты, формула ")</f>
-        <v>Зависимость высоты Солнца над горизонтом от географической широты, формула </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Земная ось ")</f>
+        <v>Земная ось </v>
       </c>
       <c r="F11" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),210.0)</f>
-        <v>210</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),211.0)</f>
+        <v>211</v>
       </c>
       <c r="G11" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Полезные ископаемые")</f>
@@ -1361,12 +1361,12 @@
         <v>810</v>
       </c>
       <c r="S11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Россия на политической карте мира")</f>
-        <v>Россия на политической карте мира</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Федеральные округа")</f>
+        <v>Федеральные округа</v>
       </c>
       <c r="T11" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),910.0)</f>
-        <v>910</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),911.0)</f>
+        <v>911</v>
       </c>
       <c r="U11" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Объекты: части суши, прилежащие к территории России (острова, полустрова, архипелаги)")</f>
@@ -1411,12 +1411,12 @@
         <v>111</v>
       </c>
       <c r="E12" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Земная ось ")</f>
-        <v>Земная ось </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Полюс северный")</f>
+        <v>Полюс северный</v>
       </c>
       <c r="F12" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),211.0)</f>
-        <v>211</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),212.0)</f>
+        <v>212</v>
       </c>
       <c r="G12" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Магматические горные породы")</f>
@@ -1467,12 +1467,12 @@
         <v>811</v>
       </c>
       <c r="S12" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Федеральные округа")</f>
-        <v>Федеральные округа</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Субъекты федерации и их административные центры")</f>
+        <v>Субъекты федерации и их административные центры</v>
       </c>
       <c r="T12" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),911.0)</f>
-        <v>911</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),912.0)</f>
+        <v>912</v>
       </c>
       <c r="U12" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Климатообразующие факторы на территории России")</f>
@@ -1517,12 +1517,12 @@
         <v>112</v>
       </c>
       <c r="E13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Полюс северный")</f>
-        <v>Полюс северный</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Полюс южный")</f>
+        <v>Полюс южный</v>
       </c>
       <c r="F13" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),212.0)</f>
-        <v>212</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),213.0)</f>
+        <v>213</v>
       </c>
       <c r="G13" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Метаморфические горные породы")</f>
@@ -1557,12 +1557,12 @@
         <v>612</v>
       </c>
       <c r="O13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Наиболее крупные народы")</f>
-        <v>Наиболее крупные народы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"География религий мира")</f>
+        <v>География религий мира</v>
       </c>
       <c r="P13" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),712.0)</f>
-        <v>712</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),713.0)</f>
+        <v>713</v>
       </c>
       <c r="Q13" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Особенности крупных стран Европы")</f>
@@ -1573,12 +1573,12 @@
         <v>812</v>
       </c>
       <c r="S13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Субъекты федерации и их административные центры")</f>
-        <v>Субъекты федерации и их административные центры</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Моря, омывающие территорию России")</f>
+        <v>Моря, омывающие территорию России</v>
       </c>
       <c r="T13" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),912.0)</f>
-        <v>912</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),914.0)</f>
+        <v>914</v>
       </c>
       <c r="U13" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Арктический климатический пояс (Россия)")</f>
@@ -1623,12 +1623,12 @@
         <v>113</v>
       </c>
       <c r="E14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Полюс южный")</f>
-        <v>Полюс южный</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Смена продолжительности дня и ночи в течение года")</f>
+        <v>Смена продолжительности дня и ночи в течение года</v>
       </c>
       <c r="F14" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),213.0)</f>
-        <v>213</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),214.0)</f>
+        <v>214</v>
       </c>
       <c r="G14" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Осадочные горные породы")</f>
@@ -1663,12 +1663,12 @@
         <v>613</v>
       </c>
       <c r="O14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"География религий мира")</f>
-        <v>География религий мира</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Географические особенности размещения населения мира")</f>
+        <v>Географические особенности размещения населения мира</v>
       </c>
       <c r="P14" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),713.0)</f>
-        <v>713</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),714.0)</f>
+        <v>714</v>
       </c>
       <c r="Q14" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Особенности крупных стран Азии")</f>
@@ -1679,12 +1679,12 @@
         <v>813</v>
       </c>
       <c r="S14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Субъекты федерации")</f>
-        <v>Субъекты федерации</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сухопутные границы России")</f>
+        <v>Сухопутные границы России</v>
       </c>
       <c r="T14" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),913.0)</f>
-        <v>913</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),916.0)</f>
+        <v>916</v>
       </c>
       <c r="U14" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Субарктический климатический пояс (Россия)")</f>
@@ -1729,12 +1729,12 @@
         <v>114</v>
       </c>
       <c r="E15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Смена продолжительности дня и ночи в течение года")</f>
-        <v>Смена продолжительности дня и ночи в течение года</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Полярные круги")</f>
+        <v>Полярные круги</v>
       </c>
       <c r="F15" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),214.0)</f>
-        <v>214</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),215.0)</f>
+        <v>215</v>
       </c>
       <c r="G15" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Литосфера")</f>
@@ -1769,12 +1769,12 @@
         <v>614</v>
       </c>
       <c r="O15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Географические особенности размещения населения мира")</f>
-        <v>Географические особенности размещения населения мира</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Факторы, влияющие на плотность населения")</f>
+        <v>Факторы, влияющие на плотность населения</v>
       </c>
       <c r="P15" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),714.0)</f>
-        <v>714</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),715.0)</f>
+        <v>715</v>
       </c>
       <c r="Q15" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Характерные черты природы Антарктиды")</f>
@@ -1785,12 +1785,12 @@
         <v>814</v>
       </c>
       <c r="S15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Моря, омывающие территорию России")</f>
-        <v>Моря, омывающие территорию России</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Морские границы России")</f>
+        <v>Морские границы России</v>
       </c>
       <c r="T15" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),914.0)</f>
-        <v>914</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),917.0)</f>
+        <v>917</v>
       </c>
       <c r="U15" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умеренный климатический пояс (Россия)")</f>
@@ -1835,12 +1835,12 @@
         <v>115</v>
       </c>
       <c r="E16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Полярные круги")</f>
-        <v>Полярные круги</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тропики")</f>
+        <v>Тропики</v>
       </c>
       <c r="F16" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),215.0)</f>
-        <v>215</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),216.0)</f>
+        <v>216</v>
       </c>
       <c r="G16" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Литосферные плиты")</f>
@@ -1875,12 +1875,12 @@
         <v>615</v>
       </c>
       <c r="O16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Факторы, влияющие на плотность населения")</f>
-        <v>Факторы, влияющие на плотность населения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Половой состав населения планеты")</f>
+        <v>Половой состав населения планеты</v>
       </c>
       <c r="P16" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),715.0)</f>
-        <v>715</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),716.0)</f>
+        <v>716</v>
       </c>
       <c r="Q16" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Столицы крупных стран мира")</f>
@@ -1891,12 +1891,12 @@
         <v>815</v>
       </c>
       <c r="S16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Административные центры субъектов")</f>
-        <v>Административные центры субъектов</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Место России среди стран мира. ")</f>
+        <v>Место России среди стран мира. </v>
       </c>
       <c r="T16" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),915.0)</f>
-        <v>915</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),918.0)</f>
+        <v>918</v>
       </c>
       <c r="U16" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умеренный умеренно континентальный  климат")</f>
@@ -1941,12 +1941,12 @@
         <v>116</v>
       </c>
       <c r="E17" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тропики")</f>
-        <v>Тропики</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Экватор")</f>
+        <v>Экватор</v>
       </c>
       <c r="F17" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),216.0)</f>
-        <v>216</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),217.0)</f>
+        <v>217</v>
       </c>
       <c r="G17" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Виды взаимодействия литосферных плит")</f>
@@ -1981,22 +1981,22 @@
         <v>616</v>
       </c>
       <c r="O17" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Половой состав населения планеты")</f>
-        <v>Половой состав населения планеты</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Возрастной состав населения планеты")</f>
+        <v>Возрастной состав населения планеты</v>
       </c>
       <c r="P17" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),716.0)</f>
-        <v>716</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),717.0)</f>
+        <v>717</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сухопутные границы России")</f>
-        <v>Сухопутные границы России</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"География государств нового зарубежья. Россия и страны СНГ")</f>
+        <v>География государств нового зарубежья. Россия и страны СНГ</v>
       </c>
       <c r="T17" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),916.0)</f>
-        <v>916</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),919.0)</f>
+        <v>919</v>
       </c>
       <c r="U17" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умеренный континентальный  климат")</f>
@@ -2041,12 +2041,12 @@
         <v>117</v>
       </c>
       <c r="E18" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Экватор")</f>
-        <v>Экватор</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Зенитальное положение Солнца")</f>
+        <v>Зенитальное положение Солнца</v>
       </c>
       <c r="F18" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),217.0)</f>
-        <v>217</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),218.0)</f>
+        <v>218</v>
       </c>
       <c r="G18" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сейсмические пояса")</f>
@@ -2081,22 +2081,22 @@
         <v>617</v>
       </c>
       <c r="O18" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Возрастной состав населения планеты")</f>
-        <v>Возрастной состав населения планеты</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Половозрастные пирамиды")</f>
+        <v>Половозрастные пирамиды</v>
       </c>
       <c r="P18" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),717.0)</f>
-        <v>717</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),718.0)</f>
+        <v>718</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Морские границы России")</f>
-        <v>Морские границы России</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Взаимосвязи России с другими странами мира")</f>
+        <v>Взаимосвязи России с другими странами мира</v>
       </c>
       <c r="T18" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),917.0)</f>
-        <v>917</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),920.0)</f>
+        <v>920</v>
       </c>
       <c r="U18" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умеренный резко континентальный  климат")</f>
@@ -2143,12 +2143,12 @@
         <v>118</v>
       </c>
       <c r="E19" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Зенитальное положение Солнца")</f>
-        <v>Зенитальное положение Солнца</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Наклон оси вращения Земли ")</f>
+        <v>Наклон оси вращения Земли </v>
       </c>
       <c r="F19" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),218.0)</f>
-        <v>218</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),219.0)</f>
+        <v>219</v>
       </c>
       <c r="G19" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Платформа")</f>
@@ -2183,22 +2183,24 @@
         <v>618</v>
       </c>
       <c r="O19" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Половозрастные пирамиды")</f>
-        <v>Половозрастные пирамиды</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Урбанизация и ее виды")</f>
+        <v>Урбанизация и ее виды</v>
       </c>
       <c r="P19" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),718.0)</f>
-        <v>718</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),719.0)</f>
+        <v>719</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Место России среди стран мира. ")</f>
-        <v>Место России среди стран мира. </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Объекты мирового природного и культур-
+ного наследия в России")</f>
+        <v>Объекты мирового природного и культур-
+ного наследия в России</v>
       </c>
       <c r="T19" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),918.0)</f>
-        <v>918</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),921.0)</f>
+        <v>921</v>
       </c>
       <c r="U19" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умеренный муссоный климат")</f>
@@ -2243,12 +2245,12 @@
         <v>119</v>
       </c>
       <c r="E20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Наклон оси вращения Земли ")</f>
-        <v>Наклон оси вращения Земли </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Дни равноденствия")</f>
+        <v>Дни равноденствия</v>
       </c>
       <c r="F20" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),219.0)</f>
-        <v>219</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),220.0)</f>
+        <v>220</v>
       </c>
       <c r="G20" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Строение платформы")</f>
@@ -2283,23 +2285,17 @@
         <v>619</v>
       </c>
       <c r="O20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Урбанизация и ее виды")</f>
-        <v>Урбанизация и ее виды</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уровень урбанизации в странах разного типа")</f>
+        <v>Уровень урбанизации в странах разного типа</v>
       </c>
       <c r="P20" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),719.0)</f>
-        <v>719</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),720.0)</f>
+        <v>720</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
-      <c r="S20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"География государств нового зарубежья. Россия и страны СНГ")</f>
-        <v>География государств нового зарубежья. Россия и страны СНГ</v>
-      </c>
-      <c r="T20" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),919.0)</f>
-        <v>919</v>
-      </c>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
       <c r="U20" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умеренный морской климат")</f>
         <v>Умеренный морской климат</v>
@@ -2343,12 +2339,12 @@
         <v>120</v>
       </c>
       <c r="E21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Дни равноденствия")</f>
-        <v>Дни равноденствия</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Дни солнцестояния")</f>
+        <v>Дни солнцестояния</v>
       </c>
       <c r="F21" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),220.0)</f>
-        <v>220</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),221.0)</f>
+        <v>221</v>
       </c>
       <c r="G21" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Складчатые пояса")</f>
@@ -2383,23 +2379,17 @@
         <v>620</v>
       </c>
       <c r="O21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уровень урбанизации в странах разного типа")</f>
-        <v>Уровень урбанизации в странах разного типа</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Городское и сельское население мира")</f>
+        <v>Городское и сельское население мира</v>
       </c>
       <c r="P21" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),720.0)</f>
-        <v>720</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),721.0)</f>
+        <v>721</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
-      <c r="S21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Взаимосвязи России с другими странами мира")</f>
-        <v>Взаимосвязи России с другими странами мира</v>
-      </c>
-      <c r="T21" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),920.0)</f>
-        <v>920</v>
-      </c>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
       <c r="U21" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Циркуляция атмосферы на территории России")</f>
         <v>Циркуляция атмосферы на территории России</v>
@@ -2443,12 +2433,12 @@
         <v>121</v>
       </c>
       <c r="E22" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Дни солнцестояния")</f>
-        <v>Дни солнцестояния</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тепловые пояса Земли")</f>
+        <v>Тепловые пояса Земли</v>
       </c>
       <c r="F22" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),221.0)</f>
-        <v>221</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),222.0)</f>
+        <v>222</v>
       </c>
       <c r="G22" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Плита")</f>
@@ -2483,25 +2473,17 @@
         <v>621</v>
       </c>
       <c r="O22" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Городское и сельское население мира")</f>
-        <v>Городское и сельское население мира</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Крупнейшие города мира")</f>
+        <v>Крупнейшие города мира</v>
       </c>
       <c r="P22" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),721.0)</f>
-        <v>721</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),722.0)</f>
+        <v>722</v>
       </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
-      <c r="S22" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Объекты мирового природного и культур-
-ного наследия в России")</f>
-        <v>Объекты мирового природного и культур-
-ного наследия в России</v>
-      </c>
-      <c r="T22" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),921.0)</f>
-        <v>921</v>
-      </c>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
       <c r="U22" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Климатическое районирование территории России")</f>
         <v>Климатическое районирование территории России</v>
@@ -2545,12 +2527,12 @@
         <v>122</v>
       </c>
       <c r="E23" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тепловые пояса Земли")</f>
-        <v>Тепловые пояса Земли</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Полярный день ")</f>
+        <v>Полярный день </v>
       </c>
       <c r="F23" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),222.0)</f>
-        <v>222</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),223.0)</f>
+        <v>223</v>
       </c>
       <c r="G23" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Щит")</f>
@@ -2585,12 +2567,12 @@
         <v>622</v>
       </c>
       <c r="O23" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Крупнейшие города мира")</f>
-        <v>Крупнейшие города мира</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Агломерация. Мегалополис")</f>
+        <v>Агломерация. Мегалополис</v>
       </c>
       <c r="P23" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),722.0)</f>
-        <v>722</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),723.0)</f>
+        <v>723</v>
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -2639,12 +2621,12 @@
         <v>123</v>
       </c>
       <c r="E24" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Полярный день ")</f>
-        <v>Полярный день </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Полярная ночь")</f>
+        <v>Полярная ночь</v>
       </c>
       <c r="F24" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),223.0)</f>
-        <v>223</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),224.0)</f>
+        <v>224</v>
       </c>
       <c r="G24" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Кристаллический фундамент")</f>
@@ -2679,12 +2661,12 @@
         <v>623</v>
       </c>
       <c r="O24" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Агломерация. Мегалополис")</f>
-        <v>Агломерация. Мегалополис</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Средняя( ожидаемая) продолжительность жизни в странах разного типа")</f>
+        <v>Средняя( ожидаемая) продолжительность жизни в странах разного типа</v>
       </c>
       <c r="P24" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),723.0)</f>
-        <v>723</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),724.0)</f>
+        <v>724</v>
       </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -2733,12 +2715,12 @@
         <v>124</v>
       </c>
       <c r="E25" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Полярная ночь")</f>
-        <v>Полярная ночь</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Возникновение планеты")</f>
+        <v>Возникновение планеты</v>
       </c>
       <c r="F25" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),224.0)</f>
-        <v>224</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),225.0)</f>
+        <v>225</v>
       </c>
       <c r="G25" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Краевой пргиб")</f>
@@ -2773,12 +2755,12 @@
         <v>624</v>
       </c>
       <c r="O25" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Средняя( ожидаемая) продолжительность жизни в странах разного типа")</f>
-        <v>Средняя( ожидаемая) продолжительность жизни в странах разного типа</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ИЧР в странах разного типа")</f>
+        <v>ИЧР в странах разного типа</v>
       </c>
       <c r="P25" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),724.0)</f>
-        <v>724</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),725.0)</f>
+        <v>725</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -2793,12 +2775,12 @@
         <v>1024</v>
       </c>
       <c r="W25" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Главные речные системы России")</f>
-        <v>Главные речные системы России</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"География сельского хозяйства России")</f>
+        <v>География сельского хозяйства России</v>
       </c>
       <c r="X25" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1124.0)</f>
-        <v>1124</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1125.0)</f>
+        <v>1125</v>
       </c>
       <c r="Y25" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Навык чтения  космических и аэрофотоснимков")</f>
@@ -2826,14 +2808,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),125.0)</f>
         <v>125</v>
       </c>
-      <c r="E26" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Возникновение планеты")</f>
-        <v>Возникновение планеты</v>
-      </c>
-      <c r="F26" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),225.0)</f>
-        <v>225</v>
-      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
       <c r="G26" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Внутренние процессы Земли")</f>
         <v>Внутренние процессы Земли</v>
@@ -2851,12 +2827,12 @@
         <v>425</v>
       </c>
       <c r="K26" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Цунами")</f>
-        <v>Цунами</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Моря внутренние и окраинные")</f>
+        <v>Моря внутренние и окраинные</v>
       </c>
       <c r="L26" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),525.0)</f>
-        <v>525</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),526.0)</f>
+        <v>526</v>
       </c>
       <c r="M26" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Альтернативная энергетика")</f>
@@ -2867,12 +2843,12 @@
         <v>625</v>
       </c>
       <c r="O26" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ИЧР в странах разного типа")</f>
-        <v>ИЧР в странах разного типа</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Структура занятости населения в странах разного типа")</f>
+        <v>Структура занятости населения в странах разного типа</v>
       </c>
       <c r="P26" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),725.0)</f>
-        <v>725</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),726.0)</f>
+        <v>726</v>
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
@@ -2887,12 +2863,12 @@
         <v>1025</v>
       </c>
       <c r="W26" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"География сельского хозяйства России")</f>
-        <v>География сельского хозяйства России</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"География сельского хозяйства России: растениеводтсво")</f>
+        <v>География сельского хозяйства России: растениеводтсво</v>
       </c>
       <c r="X26" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1125.0)</f>
-        <v>1125</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1126.0)</f>
+        <v>1126</v>
       </c>
       <c r="Y26" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Навык чтения, сравнения и сопоставления карт, статистических материалов ")</f>
@@ -2920,14 +2896,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),126.0)</f>
         <v>126</v>
       </c>
-      <c r="E27" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Гравитация")</f>
-        <v>Гравитация</v>
-      </c>
-      <c r="F27" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),226.0)</f>
-        <v>226</v>
-      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
       <c r="G27" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тектонические движения")</f>
         <v>Тектонические движения</v>
@@ -2944,14 +2914,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),426.0)</f>
         <v>426</v>
       </c>
-      <c r="K27" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Моря внутренние и окраинные")</f>
-        <v>Моря внутренние и окраинные</v>
-      </c>
-      <c r="L27" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),526.0)</f>
-        <v>526</v>
-      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
       <c r="M27" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Опасные природные явления")</f>
         <v>Опасные природные явления</v>
@@ -2961,12 +2925,12 @@
         <v>626</v>
       </c>
       <c r="O27" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Структура занятости населения в странах разного типа")</f>
-        <v>Структура занятости населения в странах разного типа</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уровень грамотности населения в странах разного типа")</f>
+        <v>Уровень грамотности населения в странах разного типа</v>
       </c>
       <c r="P27" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),726.0)</f>
-        <v>726</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),727.0)</f>
+        <v>727</v>
       </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
@@ -2981,12 +2945,12 @@
         <v>1026</v>
       </c>
       <c r="W27" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"География сельского хозяйства России: растениеводтсво")</f>
-        <v>География сельского хозяйства России: растениеводтсво</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"География сельского хозяйства России: животноводство")</f>
+        <v>География сельского хозяйства России: животноводство</v>
       </c>
       <c r="X27" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1126.0)</f>
-        <v>1126</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1127.0)</f>
+        <v>1127</v>
       </c>
       <c r="Y27" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Навык работы с геоинформационными системами")</f>
@@ -3037,12 +3001,12 @@
         <v>627</v>
       </c>
       <c r="O28" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уровень грамотности населения в странах разного типа")</f>
-        <v>Уровень грамотности населения в странах разного типа</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Показатель ВВП на душу населения в странах разного типа")</f>
+        <v>Показатель ВВП на душу населения в странах разного типа</v>
       </c>
       <c r="P28" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),727.0)</f>
-        <v>727</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),728.0)</f>
+        <v>728</v>
       </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -3057,12 +3021,12 @@
         <v>1027</v>
       </c>
       <c r="W28" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"География сельского хозяйства России: животноводство")</f>
-        <v>География сельского хозяйства России: животноводство</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"География сельского хозяйства России: растениеводтсво - зерновые культуры")</f>
+        <v>География сельского хозяйства России: растениеводтсво - зерновые культуры</v>
       </c>
       <c r="X28" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1127.0)</f>
-        <v>1127</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1128.0)</f>
+        <v>1128</v>
       </c>
       <c r="Y28" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение определять стороны горизонта по топографической карте")</f>
@@ -3113,12 +3077,12 @@
         <v>628</v>
       </c>
       <c r="O29" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Показатель ВВП на душу населения в странах разного типа")</f>
-        <v>Показатель ВВП на душу населения в странах разного типа</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие ""мировое хозяйство""")</f>
+        <v>Понятие "мировое хозяйство"</v>
       </c>
       <c r="P29" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),728.0)</f>
-        <v>728</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),729.0)</f>
+        <v>729</v>
       </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -3133,12 +3097,12 @@
         <v>1028</v>
       </c>
       <c r="W29" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"География сельского хозяйства России: растениеводтсво - зерновые культуры")</f>
-        <v>География сельского хозяйства России: растениеводтсво - зерновые культуры</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"География сельского хозяйства России: виноградоводство и садоводство")</f>
+        <v>География сельского хозяйства России: виноградоводство и садоводство</v>
       </c>
       <c r="X29" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1128.0)</f>
-        <v>1128</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1129.0)</f>
+        <v>1129</v>
       </c>
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
@@ -3183,12 +3147,12 @@
         <v>629</v>
       </c>
       <c r="O30" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие ""мировое хозяйство""")</f>
-        <v>Понятие "мировое хозяйство"</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Отраслевая структура экономики. Типы отраслевой структуры")</f>
+        <v> Отраслевая структура экономики. Типы отраслевой структуры</v>
       </c>
       <c r="P30" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),729.0)</f>
-        <v>729</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),730.0)</f>
+        <v>730</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -3203,12 +3167,12 @@
         <v>1029</v>
       </c>
       <c r="W30" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"География сельского хозяйства России: виноградоводство и садоводство")</f>
-        <v>География сельского хозяйства России: виноградоводство и садоводство</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Минерально-сырьевые базы России")</f>
+        <v>Минерально-сырьевые базы России</v>
       </c>
       <c r="X30" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1129.0)</f>
-        <v>1129</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1130.0)</f>
+        <v>1130</v>
       </c>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
@@ -3253,12 +3217,12 @@
         <v>630</v>
       </c>
       <c r="O31" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Отраслевая структура экономики. Типы отраслевой структуры")</f>
-        <v> Отраслевая структура экономики. Типы отраслевой структуры</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Международное разделение труда . Международная специализация крупнейших стран т регионов мира")</f>
+        <v>Международное разделение труда . Международная специализация крупнейших стран т регионов мира</v>
       </c>
       <c r="P31" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),730.0)</f>
-        <v>730</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),733.0)</f>
+        <v>733</v>
       </c>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
@@ -3273,12 +3237,12 @@
         <v>1030</v>
       </c>
       <c r="W31" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Минерально-сырьевые базы России")</f>
-        <v>Минерально-сырьевые базы России</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Лесная и целлюлозно-бумажная промышленность, факторы размещения предприятий ")</f>
+        <v>Лесная и целлюлозно-бумажная промышленность, факторы размещения предприятий </v>
       </c>
       <c r="X31" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1130.0)</f>
-        <v>1130</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1131.0)</f>
+        <v>1131</v>
       </c>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
@@ -3323,12 +3287,12 @@
         <v>631</v>
       </c>
       <c r="O32" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Территориальная структура экономики. Глобализация мировой экономики")</f>
-        <v>Территориальная структура экономики. Глобализация мировой экономики</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Горнодобывающая промышленность")</f>
+        <v>Горнодобывающая промышленность</v>
       </c>
       <c r="P32" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),731.0)</f>
-        <v>731</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),735.0)</f>
+        <v>735</v>
       </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
@@ -3343,12 +3307,12 @@
         <v>1031</v>
       </c>
       <c r="W32" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Лесная и целлюлозно-бумажная промышленность, факторы размещения предприятий ")</f>
-        <v>Лесная и целлюлозно-бумажная промышленность, факторы размещения предприятий </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химическая промышленность, факторы размещения предприятий ")</f>
+        <v>Химическая промышленность, факторы размещения предприятий </v>
       </c>
       <c r="X32" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1131.0)</f>
-        <v>1131</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1132.0)</f>
+        <v>1132</v>
       </c>
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
@@ -3393,12 +3357,12 @@
         <v>632</v>
       </c>
       <c r="O33" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Основное содержание научно-технической революции (НТР) на современном этапе")</f>
-        <v>Основное содержание научно-технической революции (НТР) на современном этапе</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Электроэнергетика. ")</f>
+        <v>Электроэнергетика. </v>
       </c>
       <c r="P33" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),732.0)</f>
-        <v>732</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),736.0)</f>
+        <v>736</v>
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
@@ -3413,12 +3377,12 @@
         <v>1032</v>
       </c>
       <c r="W33" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химическая промышленность, факторы размещения предприятий ")</f>
-        <v>Химическая промышленность, факторы размещения предприятий </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Топливно-энергетический комплекс, факторы размещения предприятий ")</f>
+        <v>Топливно-энергетический комплекс, факторы размещения предприятий </v>
       </c>
       <c r="X33" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1132.0)</f>
-        <v>1132</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1133.0)</f>
+        <v>1133</v>
       </c>
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
@@ -3463,12 +3427,12 @@
         <v>633</v>
       </c>
       <c r="O34" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Международное разделение труда . Международная специализация крупнейших стран т регионов мира")</f>
-        <v>Международное разделение труда . Международная специализация крупнейших стран т регионов мира</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нефтяная, газовая и угольная промышленность. Страны ОПЕК — основные экспортеры нефти")</f>
+        <v>Нефтяная, газовая и угольная промышленность. Страны ОПЕК — основные экспортеры нефти</v>
       </c>
       <c r="P34" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),733.0)</f>
-        <v>733</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),737.0)</f>
+        <v>737</v>
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
@@ -3483,12 +3447,12 @@
         <v>1033</v>
       </c>
       <c r="W34" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Топливно-энергетический комплекс, факторы размещения предприятий ")</f>
-        <v>Топливно-энергетический комплекс, факторы размещения предприятий </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нефтяная, газовая, угольная промышленность, факторы размещения предприятий ")</f>
+        <v>Нефтяная, газовая, угольная промышленность, факторы размещения предприятий </v>
       </c>
       <c r="X34" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1133.0)</f>
-        <v>1133</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1134.0)</f>
+        <v>1134</v>
       </c>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
@@ -3533,12 +3497,12 @@
         <v>634</v>
       </c>
       <c r="O35" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Факторы, определяющие размещение отраслей хозяйства, изменение их роли в условиях научно-технической роволюции")</f>
-        <v>Факторы, определяющие размещение отраслей хозяйства, изменение их роли в условиях научно-технической роволюции</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Черная металлургия мира, факторы размещения")</f>
+        <v>Черная металлургия мира, факторы размещения</v>
       </c>
       <c r="P35" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),734.0)</f>
-        <v>734</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),738.0)</f>
+        <v>738</v>
       </c>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
@@ -3553,12 +3517,12 @@
         <v>1034</v>
       </c>
       <c r="W35" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нефтяная, газовая, угольная промышленность, факторы размещения предприятий ")</f>
-        <v>Нефтяная, газовая, угольная промышленность, факторы размещения предприятий </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Электроэнергетика, факторы размещения предприятий ")</f>
+        <v>Электроэнергетика, факторы размещения предприятий </v>
       </c>
       <c r="X35" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1134.0)</f>
-        <v>1134</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1135.0)</f>
+        <v>1135</v>
       </c>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
@@ -3603,12 +3567,12 @@
         <v>635</v>
       </c>
       <c r="O36" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Горнодобывающая промышленность")</f>
-        <v>Горнодобывающая промышленность</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Цветная металлургия мира, факторы размещения")</f>
+        <v>Цветная металлургия мира, факторы размещения</v>
       </c>
       <c r="P36" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),735.0)</f>
-        <v>735</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),739.0)</f>
+        <v>739</v>
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -3623,12 +3587,12 @@
         <v>1035</v>
       </c>
       <c r="W36" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Электроэнергетика, факторы размещения предприятий ")</f>
-        <v>Электроэнергетика, факторы размещения предприятий </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Металлургия, факторы размещения предприятий ")</f>
+        <v>Металлургия, факторы размещения предприятий </v>
       </c>
       <c r="X36" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1135.0)</f>
-        <v>1135</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1136.0)</f>
+        <v>1136</v>
       </c>
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
@@ -3673,12 +3637,12 @@
         <v>636</v>
       </c>
       <c r="O37" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Электроэнергетика. ")</f>
-        <v>Электроэнергетика. </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Мировое машиностроение, факторы размещения")</f>
+        <v>Мировое машиностроение, факторы размещения</v>
       </c>
       <c r="P37" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),736.0)</f>
-        <v>736</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),740.0)</f>
+        <v>740</v>
       </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -3693,12 +3657,14 @@
         <v>1036</v>
       </c>
       <c r="W37" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Металлургия, факторы размещения предприятий ")</f>
-        <v>Металлургия, факторы размещения предприятий </v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Черная металлургия:
+факторы размещения предприятий, Металлургические базы и центры")</f>
+        <v>Черная металлургия:
+факторы размещения предприятий, Металлургические базы и центры</v>
       </c>
       <c r="X37" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1136.0)</f>
-        <v>1136</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1137.0)</f>
+        <v>1137</v>
       </c>
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
@@ -3743,12 +3709,12 @@
         <v>637</v>
       </c>
       <c r="O38" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нефтяная, газовая и угольная промышленность. Страны ОПЕК — основные экспортеры нефти")</f>
-        <v>Нефтяная, газовая и угольная промышленность. Страны ОПЕК — основные экспортеры нефти</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химическая промышленность мира, факторы размещения")</f>
+        <v>Химическая промышленность мира, факторы размещения</v>
       </c>
       <c r="P38" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),737.0)</f>
-        <v>737</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),741.0)</f>
+        <v>741</v>
       </c>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
@@ -3763,14 +3729,12 @@
         <v>1037</v>
       </c>
       <c r="W38" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Черная металлургия:
-факторы размещения предприятий, Металлургические базы и центры")</f>
-        <v>Черная металлургия:
-факторы размещения предприятий, Металлургические базы и центры</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Цветная металлургия, металлургические базы и центры")</f>
+        <v>Цветная металлургия, металлургические базы и центры</v>
       </c>
       <c r="X38" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1137.0)</f>
-        <v>1137</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1138.0)</f>
+        <v>1138</v>
       </c>
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
@@ -3800,15 +3764,21 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
+      <c r="M39" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Классификация энергетических ресурсов ")</f>
+        <v>Классификация энергетических ресурсов </v>
+      </c>
+      <c r="N39" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),638.0)</f>
+        <v>638</v>
+      </c>
       <c r="O39" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Черная металлургия мира, факторы размещения")</f>
-        <v>Черная металлургия мира, факторы размещения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Лесная промышленность мира, факторы размещения")</f>
+        <v>Лесная промышленность мира, факторы размещения</v>
       </c>
       <c r="P39" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),738.0)</f>
-        <v>738</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),742.0)</f>
+        <v>742</v>
       </c>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
@@ -3823,12 +3793,14 @@
         <v>1038</v>
       </c>
       <c r="W39" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Цветная металлургия, металлургические базы и центры")</f>
-        <v>Цветная металлургия, металлургические базы и центры</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Металлургические комбинаты полного цикла
+")</f>
+        <v>Металлургические комбинаты полного цикла
+</v>
       </c>
       <c r="X39" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1138.0)</f>
-        <v>1138</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1139.0)</f>
+        <v>1139</v>
       </c>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
@@ -3858,15 +3830,21 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
+      <c r="M40" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Особо охраняемые природные территории ")</f>
+        <v>Особо охраняемые природные территории </v>
+      </c>
+      <c r="N40" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),639.0)</f>
+        <v>639</v>
+      </c>
       <c r="O40" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Цветная металлургия мира, факторы размещения")</f>
-        <v>Цветная металлургия мира, факторы размещения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Мировое судостроение, факторы размещения")</f>
+        <v>Мировое судостроение, факторы размещения</v>
       </c>
       <c r="P40" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),739.0)</f>
-        <v>739</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),743.0)</f>
+        <v>743</v>
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
@@ -3881,14 +3859,12 @@
         <v>1039</v>
       </c>
       <c r="W40" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Металлургические комбинаты полного цикла
-")</f>
-        <v>Металлургические комбинаты полного цикла
-</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Машиностроение, факторы размещения предприятий и центры")</f>
+        <v>Машиностроение, факторы размещения предприятий и центры</v>
       </c>
       <c r="X40" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1139.0)</f>
-        <v>1139</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1140.0)</f>
+        <v>1140</v>
       </c>
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
@@ -3921,12 +3897,12 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Мировое машиностроение, факторы размещения")</f>
-        <v>Мировое машиностроение, факторы размещения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пищевая промышленность, факторы размещения")</f>
+        <v>Пищевая промышленность, факторы размещения</v>
       </c>
       <c r="P41" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),740.0)</f>
-        <v>740</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),744.0)</f>
+        <v>744</v>
       </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
@@ -3941,12 +3917,12 @@
         <v>1040</v>
       </c>
       <c r="W41" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Машиностроение, факторы размещения предприятий и центры")</f>
-        <v>Машиностроение, факторы размещения предприятий и центры</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Австомобилестроение, факторы размещения предприятий и центры")</f>
+        <v>Австомобилестроение, факторы размещения предприятий и центры</v>
       </c>
       <c r="X41" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1140.0)</f>
-        <v>1140</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1141.0)</f>
+        <v>1141</v>
       </c>
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
@@ -3973,12 +3949,12 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Химическая промышленность мира, факторы размещения")</f>
-        <v>Химическая промышленность мира, факторы размещения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Легкая промышленность, факторы размещения")</f>
+        <v>Легкая промышленность, факторы размещения</v>
       </c>
       <c r="P42" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),741.0)</f>
-        <v>741</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),745.0)</f>
+        <v>745</v>
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
@@ -3993,12 +3969,12 @@
         <v>1041</v>
       </c>
       <c r="W42" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Австомобилестроение, факторы размещения предприятий и центры")</f>
-        <v>Австомобилестроение, факторы размещения предприятий и центры</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тракторостроение, факторы размещения предприятий и центры")</f>
+        <v>Тракторостроение, факторы размещения предприятий и центры</v>
       </c>
       <c r="X42" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1141.0)</f>
-        <v>1141</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1142.0)</f>
+        <v>1142</v>
       </c>
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
@@ -4025,12 +4001,12 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Лесная промышленность мира, факторы размещения")</f>
-        <v>Лесная промышленность мира, факторы размещения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ведущие страны-экспортеры основных видов промышленной продукции.")</f>
+        <v>Ведущие страны-экспортеры основных видов промышленной продукции.</v>
       </c>
       <c r="P43" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),742.0)</f>
-        <v>742</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),746.0)</f>
+        <v>746</v>
       </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
@@ -4045,12 +4021,12 @@
         <v>1042</v>
       </c>
       <c r="W43" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тракторостроение, факторы размещения предприятий и центры")</f>
-        <v>Тракторостроение, факторы размещения предприятий и центры</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сельскохозяйственное машиностроение, факторы размещения предприятий и центры")</f>
+        <v>Сельскохозяйственное машиностроение, факторы размещения предприятий и центры</v>
       </c>
       <c r="X43" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1142.0)</f>
-        <v>1142</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1143.0)</f>
+        <v>1143</v>
       </c>
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
@@ -4077,12 +4053,12 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Мировое судостроение, факторы размещения")</f>
-        <v>Мировое судостроение, факторы размещения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сельское хозяйство. Аграрные отношения в странах разного типа")</f>
+        <v>Сельское хозяйство. Аграрные отношения в странах разного типа</v>
       </c>
       <c r="P44" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),743.0)</f>
-        <v>743</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),747.0)</f>
+        <v>747</v>
       </c>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
@@ -4097,12 +4073,12 @@
         <v>1043</v>
       </c>
       <c r="W44" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сельскохозяйственное машиностроение, факторы размещения предприятий и центры")</f>
-        <v>Сельскохозяйственное машиностроение, факторы размещения предприятий и центры</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Судостроение, факторы размещения предприятий и центры")</f>
+        <v>Судостроение, факторы размещения предприятий и центры</v>
       </c>
       <c r="X44" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1143.0)</f>
-        <v>1143</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1144.0)</f>
+        <v>1144</v>
       </c>
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
@@ -4129,12 +4105,12 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пищевая промышленность, факторы размещения")</f>
-        <v>Пищевая промышленность, факторы размещения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Крупнейшие производители сельскохозяйственной продукциии в мире")</f>
+        <v>Крупнейшие производители сельскохозяйственной продукциии в мире</v>
       </c>
       <c r="P45" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),744.0)</f>
-        <v>744</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),748.0)</f>
+        <v>748</v>
       </c>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
@@ -4149,12 +4125,12 @@
         <v>1044</v>
       </c>
       <c r="W45" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Судостроение, факторы размещения предприятий и центры")</f>
-        <v>Судостроение, факторы размещения предприятий и центры</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тяжелое машиностроение, факторы размещения предприятий и центры")</f>
+        <v>Тяжелое машиностроение, факторы размещения предприятий и центры</v>
       </c>
       <c r="X45" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1144.0)</f>
-        <v>1144</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1145.0)</f>
+        <v>1145</v>
       </c>
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
@@ -4181,12 +4157,12 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Легкая промышленность, факторы размещения")</f>
-        <v>Легкая промышленность, факторы размещения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ведущие страны - экспортеры зерновых культур")</f>
+        <v>Ведущие страны - экспортеры зерновых культур</v>
       </c>
       <c r="P46" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),745.0)</f>
-        <v>745</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),749.0)</f>
+        <v>749</v>
       </c>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
@@ -4201,12 +4177,12 @@
         <v>1045</v>
       </c>
       <c r="W46" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тяжелое машиностроение, факторы размещения предприятий и центры")</f>
-        <v>Тяжелое машиностроение, факторы размещения предприятий и центры</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Точное машиностроение, факторы размещения предприятий и центры")</f>
+        <v>Точное машиностроение, факторы размещения предприятий и центры</v>
       </c>
       <c r="X46" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1145.0)</f>
-        <v>1145</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1146.0)</f>
+        <v>1146</v>
       </c>
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
@@ -4233,12 +4209,12 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ведущие страны-экспортеры основных видов промышленной продукции.")</f>
-        <v>Ведущие страны-экспортеры основных видов промышленной продукции.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ведущие страны-экспортеры технических волокнистых культур и каучуконосов")</f>
+        <v>Ведущие страны-экспортеры технических волокнистых культур и каучуконосов</v>
       </c>
       <c r="P47" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),746.0)</f>
-        <v>746</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),750.0)</f>
+        <v>750</v>
       </c>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
@@ -4253,12 +4229,12 @@
         <v>1046</v>
       </c>
       <c r="W47" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Точное машиностроение, факторы размещения предприятий и центры")</f>
-        <v>Точное машиностроение, факторы размещения предприятий и центры</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пищевая промышленность")</f>
+        <v>Пищевая промышленность</v>
       </c>
       <c r="X47" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1146.0)</f>
-        <v>1146</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1148.0)</f>
+        <v>1148</v>
       </c>
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
@@ -4285,12 +4261,12 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сельское хозяйство. Аграрные отношения в странах разного типа")</f>
-        <v>Сельское хозяйство. Аграрные отношения в странах разного типа</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Ведущие страны-экспортеры технических сахароносных и масличных культур")</f>
+        <v> Ведущие страны-экспортеры технических сахароносных и масличных культур</v>
       </c>
       <c r="P48" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),747.0)</f>
-        <v>747</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),751.0)</f>
+        <v>751</v>
       </c>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
@@ -4305,12 +4281,12 @@
         <v>1047</v>
       </c>
       <c r="W48" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Кооперирование")</f>
-        <v>Кооперирование</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Легкая промышленность")</f>
+        <v>Легкая промышленность</v>
       </c>
       <c r="X48" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1147.0)</f>
-        <v>1147</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1149.0)</f>
+        <v>1149</v>
       </c>
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
@@ -4337,12 +4313,12 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Крупнейшие производители сельскохозяйственной продукциии в мире")</f>
-        <v>Крупнейшие производители сельскохозяйственной продукциии в мире</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ведущие страны-экспортеры технических тонизирующих культур")</f>
+        <v>Ведущие страны-экспортеры технических тонизирующих культур</v>
       </c>
       <c r="P49" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),748.0)</f>
-        <v>748</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),752.0)</f>
+        <v>752</v>
       </c>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
@@ -4357,12 +4333,12 @@
         <v>1048</v>
       </c>
       <c r="W49" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пищевая промышленность")</f>
-        <v>Пищевая промышленность</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Транспорт")</f>
+        <v>Транспорт</v>
       </c>
       <c r="X49" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1148.0)</f>
-        <v>1148</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1150.0)</f>
+        <v>1150</v>
       </c>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
@@ -4389,12 +4365,12 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ведущие страны - экспортеры зерновых культур")</f>
-        <v>Ведущие страны - экспортеры зерновых культур</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"География садоводства и виноградарства")</f>
+        <v>География садоводства и виноградарства</v>
       </c>
       <c r="P50" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),749.0)</f>
-        <v>749</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),753.0)</f>
+        <v>753</v>
       </c>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
@@ -4409,12 +4385,14 @@
         <v>1049</v>
       </c>
       <c r="W50" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Легкая промышленность")</f>
-        <v>Легкая промышленность</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Преимущества и недостатки отдельных видов
+транспорта")</f>
+        <v>Преимущества и недостатки отдельных видов
+транспорта</v>
       </c>
       <c r="X50" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1149.0)</f>
-        <v>1149</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1151.0)</f>
+        <v>1151</v>
       </c>
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
@@ -4441,12 +4419,12 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ведущие страны-экспортеры технических волокнистых культур и каучуконосов")</f>
-        <v>Ведущие страны-экспортеры технических волокнистых культур и каучуконосов</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"География скотоводства. Страны- экспортеры мяса")</f>
+        <v>География скотоводства. Страны- экспортеры мяса</v>
       </c>
       <c r="P51" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),750.0)</f>
-        <v>750</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),754.0)</f>
+        <v>754</v>
       </c>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
@@ -4461,12 +4439,12 @@
         <v>1050</v>
       </c>
       <c r="W51" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Транспорт")</f>
-        <v>Транспорт</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сухопутный, водный и воздушный транспорт")</f>
+        <v>Сухопутный, водный и воздушный транспорт</v>
       </c>
       <c r="X51" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1150.0)</f>
-        <v>1150</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1152.0)</f>
+        <v>1152</v>
       </c>
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
@@ -4478,8 +4456,14 @@
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
+      <c r="G52" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Цунами")</f>
+        <v>Цунами</v>
+      </c>
+      <c r="H52" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),351.0)</f>
+        <v>351</v>
+      </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -4487,12 +4471,12 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Ведущие страны-экспортеры технических сахароносных и масличных культур")</f>
-        <v> Ведущие страны-экспортеры технических сахароносных и масличных культур</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"География овцеводства. Страны -экспортеры шерсти")</f>
+        <v>География овцеводства. Страны -экспортеры шерсти</v>
       </c>
       <c r="P52" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),751.0)</f>
-        <v>751</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),755.0)</f>
+        <v>755</v>
       </c>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
@@ -4507,14 +4491,12 @@
         <v>1051</v>
       </c>
       <c r="W52" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Преимущества и недостатки отдельных видов
-транспорта")</f>
-        <v>Преимущества и недостатки отдельных видов
-транспорта</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Трубопроводный транспорт")</f>
+        <v>Трубопроводный транспорт</v>
       </c>
       <c r="X52" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1151.0)</f>
-        <v>1151</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1153.0)</f>
+        <v>1153</v>
       </c>
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
@@ -4535,12 +4517,12 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ведущие страны-экспортеры технических тонизирующих культур")</f>
-        <v>Ведущие страны-экспортеры технических тонизирующих культур</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Мировая транспортная система.Основные преимуществаразличных видов транспорта")</f>
+        <v>Мировая транспортная система.Основные преимуществаразличных видов транспорта</v>
       </c>
       <c r="P53" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),752.0)</f>
-        <v>752</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),756.0)</f>
+        <v>756</v>
       </c>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
@@ -4555,12 +4537,12 @@
         <v>1052</v>
       </c>
       <c r="W53" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сухопутный, водный и воздушный транспорт")</f>
-        <v>Сухопутный, водный и воздушный транспорт</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Северный морской путь. Порты")</f>
+        <v>Северный морской путь. Порты</v>
       </c>
       <c r="X53" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1152.0)</f>
-        <v>1152</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1154.0)</f>
+        <v>1154</v>
       </c>
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
@@ -4581,12 +4563,12 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"География садоводства и виноградарства")</f>
-        <v>География садоводства и виноградарства</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"География железнодорожного транспорта")</f>
+        <v>География железнодорожного транспорта</v>
       </c>
       <c r="P54" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),753.0)</f>
-        <v>753</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),757.0)</f>
+        <v>757</v>
       </c>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
@@ -4601,12 +4583,12 @@
         <v>1053</v>
       </c>
       <c r="W54" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Трубопроводный транспорт")</f>
-        <v>Трубопроводный транспорт</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Железнодорожные магистрали")</f>
+        <v>Железнодорожные магистрали</v>
       </c>
       <c r="X54" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1153.0)</f>
-        <v>1153</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1155.0)</f>
+        <v>1155</v>
       </c>
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
@@ -4627,12 +4609,12 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"География скотоводства. Страны- экспортеры мяса")</f>
-        <v>География скотоводства. Страны- экспортеры мяса</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"География автомобильного транспорта")</f>
+        <v>География автомобильного транспорта</v>
       </c>
       <c r="P55" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),754.0)</f>
-        <v>754</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),758.0)</f>
+        <v>758</v>
       </c>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
@@ -4647,12 +4629,12 @@
         <v>1054</v>
       </c>
       <c r="W55" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Северный морской путь. Порты")</f>
-        <v>Северный морской путь. Порты</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Туризм. Развитие туризма в России")</f>
+        <v>Туризм. Развитие туризма в России</v>
       </c>
       <c r="X55" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1154.0)</f>
-        <v>1154</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1156.0)</f>
+        <v>1156</v>
       </c>
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
@@ -4673,12 +4655,12 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"География овцеводства. Страны -экспортеры шерсти")</f>
-        <v>География овцеводства. Страны -экспортеры шерсти</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"География речного транспорта. Основные водные магистрали")</f>
+        <v>География речного транспорта. Основные водные магистрали</v>
       </c>
       <c r="P56" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),755.0)</f>
-        <v>755</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),759.0)</f>
+        <v>759</v>
       </c>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
@@ -4693,12 +4675,12 @@
         <v>1055</v>
       </c>
       <c r="W56" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Железнодорожные магистрали")</f>
-        <v>Железнодорожные магистрали</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Растениеводство - технические культуры")</f>
+        <v>Растениеводство - технические культуры</v>
       </c>
       <c r="X56" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1155.0)</f>
-        <v>1155</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1157.0)</f>
+        <v>1157</v>
       </c>
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
@@ -4719,12 +4701,12 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Мировая транспортная система.Основные преимуществаразличных видов транспорта")</f>
-        <v>Мировая транспортная система.Основные преимуществаразличных видов транспорта</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"География трубопроводного транспорта")</f>
+        <v>География трубопроводного транспорта</v>
       </c>
       <c r="P57" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),756.0)</f>
-        <v>756</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),760.0)</f>
+        <v>760</v>
       </c>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
@@ -4739,12 +4721,12 @@
         <v>1056</v>
       </c>
       <c r="W57" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Туризм. Развитие туризма в России")</f>
-        <v>Туризм. Развитие туризма в России</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Авиастроение, факторы размещения предприятий и центры")</f>
+        <v>Авиастроение, факторы размещения предприятий и центры</v>
       </c>
       <c r="X57" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1156.0)</f>
-        <v>1156</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1158.0)</f>
+        <v>1158</v>
       </c>
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
@@ -4765,12 +4747,12 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"География железнодорожного транспорта")</f>
-        <v>География железнодорожного транспорта</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"География морского транспорта. Основные международные магистрали, Крупнейшие порты мира")</f>
+        <v>География морского транспорта. Основные международные магистрали, Крупнейшие порты мира</v>
       </c>
       <c r="P58" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),757.0)</f>
-        <v>757</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),761.0)</f>
+        <v>761</v>
       </c>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
@@ -4784,14 +4766,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1057.0)</f>
         <v>1057</v>
       </c>
-      <c r="W58" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Растениеводство - технические культуры")</f>
-        <v>Растениеводство - технические культуры</v>
-      </c>
-      <c r="X58" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1157.0)</f>
-        <v>1157</v>
-      </c>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
@@ -4811,12 +4787,12 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"География автомобильного транспорта")</f>
-        <v>География автомобильного транспорта</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Международные экономические отношения.Мировой рынок. Международные экономические связи")</f>
+        <v>Международные экономические отношения.Мировой рынок. Международные экономические связи</v>
       </c>
       <c r="P59" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),758.0)</f>
-        <v>758</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),762.0)</f>
+        <v>762</v>
       </c>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
@@ -4830,14 +4806,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1058.0)</f>
         <v>1058</v>
       </c>
-      <c r="W59" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Авиастроение, факторы размещения предприятий и центры")</f>
-        <v>Авиастроение, факторы размещения предприятий и центры</v>
-      </c>
-      <c r="X59" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1158.0)</f>
-        <v>1158</v>
-      </c>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
@@ -4857,12 +4827,12 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"География речного транспорта. Основные водные магистрали")</f>
-        <v>География речного транспорта. Основные водные магистрали</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Международные организации ( региональные, политические и отраслевые союзы)")</f>
+        <v>Международные организации ( региональные, политические и отраслевые союзы)</v>
       </c>
       <c r="P60" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),759.0)</f>
-        <v>759</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),763.0)</f>
+        <v>763</v>
       </c>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
@@ -4897,12 +4867,12 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"География трубопроводного транспорта")</f>
-        <v>География трубопроводного транспорта</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Международная интеграция и глобализация")</f>
+        <v>Международная интеграция и глобализация</v>
       </c>
       <c r="P61" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),760.0)</f>
-        <v>760</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),764.0)</f>
+        <v>764</v>
       </c>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
@@ -4937,12 +4907,14 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"География морского транспорта. Основные международные магистрали, Крупнейшие порты мира")</f>
-        <v>География морского транспорта. Основные международные магистрали, Крупнейшие порты мира</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Преимущества и недостатки отдельных видов
+транспорта")</f>
+        <v>Преимущества и недостатки отдельных видов
+транспорта</v>
       </c>
       <c r="P62" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),761.0)</f>
-        <v>761</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),765.0)</f>
+        <v>765</v>
       </c>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
@@ -4977,12 +4949,12 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Международные экономические отношения.Мировой рынок. Международные экономические связи")</f>
-        <v>Международные экономические отношения.Мировой рынок. Международные экономические связи</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Демографический переход")</f>
+        <v>Демографический переход</v>
       </c>
       <c r="P63" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),762.0)</f>
-        <v>762</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),766.0)</f>
+        <v>766</v>
       </c>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
@@ -5016,14 +4988,8 @@
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
-      <c r="O64" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Международные организации ( региональные, политические и отраслевые союзы)")</f>
-        <v>Международные организации ( региональные, политические и отраслевые союзы)</v>
-      </c>
-      <c r="P64" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),763.0)</f>
-        <v>763</v>
-      </c>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
@@ -5056,14 +5022,8 @@
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
-      <c r="O65" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Международная интеграция и глобализация")</f>
-        <v>Международная интеграция и глобализация</v>
-      </c>
-      <c r="P65" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),764.0)</f>
-        <v>764</v>
-      </c>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
@@ -5096,16 +5056,8 @@
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
-      <c r="O66" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Преимущества и недостатки отдельных видов
-транспорта")</f>
-        <v>Преимущества и недостатки отдельных видов
-транспорта</v>
-      </c>
-      <c r="P66" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),765.0)</f>
-        <v>765</v>
-      </c>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
